--- a/biology/Botanique/Écosystème_du_pin_des_marais/Écosystème_du_pin_des_marais.xlsx
+++ b/biology/Botanique/Écosystème_du_pin_des_marais/Écosystème_du_pin_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cosyst%C3%A8me_du_pin_des_marais</t>
+          <t>Écosystème_du_pin_des_marais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">A partir du XVIe siècle, l'exploitation des forêts de Caroline du Nord et de Virginie pour le bois de sciage, l'élevage et les munitions de marine (Naval store, approvisionnement en produits résineux pour la marine), va mener à la quasi-disparition des écosystèmes propres au pin des marais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cosyst%C3%A8me_du_pin_des_marais</t>
+          <t>Écosystème_du_pin_des_marais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Causes de la déforestation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Exploitation à fin de munition de marine (poix, brai, goudron de pin, térébenthine);
 Exploitation à fin de bois de sciage (bois de marine et bois d’œuvre).
-Marronnage animalier: Les porcs (hogs, feral pig) et autres animaux féraux introduits dans les bois entre 1565-1732. Pendant la guerre civile, les soldats de l'Union en Virginie ont rencontré tellement de porcs qu'ils les ont appelés « lapins de Virginie »; Falmouth, en Virginie, a été surnommé « Hogtown » pendant la période coloniale à cause de tous les porcs qui couraient librement dans la région, et ce nom s’est longtemps maintenu au XXe siècle. Hog Island, dans le Comté de Northampton, en Virginie, gagna son nom de la même manière, etc.[1]. Les porcs sauvages ont été introduits en 1539 par l'explorateur espagnol Hernando de Soto, qui les a amenés en Floride comme source d'approvisionnement en nourriture. Plus tard, les colons américains ont autorisé certains porcs domestiqués à se nourrir dans les bois, libérant nombre d'entre eux pour toujours. Aujourd’hui encore ils continuent à s'échapper des enclos de ferme, et constituent un fléau dont la Virginie tente de se débarrasser[2].</t>
+Marronnage animalier: Les porcs (hogs, feral pig) et autres animaux féraux introduits dans les bois entre 1565-1732. Pendant la guerre civile, les soldats de l'Union en Virginie ont rencontré tellement de porcs qu'ils les ont appelés « lapins de Virginie »; Falmouth, en Virginie, a été surnommé « Hogtown » pendant la période coloniale à cause de tous les porcs qui couraient librement dans la région, et ce nom s’est longtemps maintenu au XXe siècle. Hog Island, dans le Comté de Northampton, en Virginie, gagna son nom de la même manière, etc.. Les porcs sauvages ont été introduits en 1539 par l'explorateur espagnol Hernando de Soto, qui les a amenés en Floride comme source d'approvisionnement en nourriture. Plus tard, les colons américains ont autorisé certains porcs domestiqués à se nourrir dans les bois, libérant nombre d'entre eux pour toujours. Aujourd’hui encore ils continuent à s'échapper des enclos de ferme, et constituent un fléau dont la Virginie tente de se débarrasser.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cosyst%C3%A8me_du_pin_des_marais</t>
+          <t>Écosystème_du_pin_des_marais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Chronologie des événements majeurs du déclin de l'écosystème du pin des marais</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1565-1732
 défrichement des terres, porcs et autres animaux féraux introduits dans les bois, production en petit de munitions de marine.
